--- a/va_facility_data_2025-02-20/Hickory VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hickory%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hickory VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hickory%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbe124eb5b0134bc0950e15d3e9304718"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6a73946ee4054fd29f6491da142e45ee"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf352d7bee4514cf5a567b068e0096a24"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2293d723ef4d425c962c94660ef88284"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re0578bee9df54d42b7cc1d8d51748a94"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6487cc07f9464f869d2b89ca1336685a"/>
   </x:sheets>
 </x:workbook>
 </file>
